--- a/URS/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/URS/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A815B56-D1E8-4AA8-A653-2F92B7B08CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="ProcNote" sheetId="3" r:id="rId3"/>
     <sheet name="ProcCdoe" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -748,9 +747,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>00003</t>
-  </si>
-  <si>
     <t>00004</t>
   </si>
   <si>
@@ -779,9 +775,6 @@
   </si>
   <si>
     <t>00120</t>
-  </si>
-  <si>
-    <t>00201</t>
   </si>
   <si>
     <t>00202</t>
@@ -1097,11 +1090,19 @@
 7.虛擬轉暫收</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>00003</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>00201</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -1411,8 +1412,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1504,23 +1505,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1556,23 +1540,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1748,10 +1715,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -1972,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2084,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="113.4">
@@ -2104,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32.4">
@@ -2218,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2238,7 +2205,7 @@
         <v>5</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="32.4">
@@ -2436,7 +2403,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G27" location="ProcCdoe!A1" display="參照ProcCode分頁" xr:uid="{7A370FD2-C116-4258-83B5-067DB3E8FB84}"/>
+    <hyperlink ref="G27" location="ProcCdoe!A1" display="參照ProcCode分頁"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2444,7 +2411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2770,7 +2737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2978,10 +2945,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359FAD1B-EA80-4EDB-A6D5-19E0B14192E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
@@ -2991,402 +2960,402 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
-        <v>188</v>
+        <v>290</v>
       </c>
       <c r="B1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="31" t="s">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B34" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B36" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B38" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B39" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B43" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="31" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B45" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B47" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="31" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B48" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B49" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B50" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/URS/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/URS/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -115,9 +115,6 @@
     <t>還款類別</t>
   </si>
   <si>
-    <t>還款金額</t>
-  </si>
-  <si>
     <t>已作帳金額</t>
   </si>
   <si>
@@ -186,14 +183,6 @@
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>應還金額</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>還款時，回寫目前之應還金額</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1096,6 +1085,18 @@
   </si>
   <si>
     <t>00201</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>還款金額</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>還款總金額</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>還款時，回寫目前還款總金額</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1718,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1739,10 +1740,10 @@
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1752,7 +1753,7 @@
       <c r="A2" s="33"/>
       <c r="B2" s="35"/>
       <c r="C2" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1767,7 +1768,7 @@
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1782,10 +1783,10 @@
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
@@ -1797,7 +1798,7 @@
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1810,7 +1811,7 @@
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1823,7 +1824,7 @@
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1832,11 +1833,11 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="10"/>
@@ -1871,13 +1872,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E10" s="23">
         <v>8</v>
@@ -1889,13 +1890,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="23">
         <v>6</v>
@@ -1907,19 +1908,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="23">
         <v>6</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="178.2">
@@ -1927,19 +1928,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="23">
         <v>2</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1950,10 +1951,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="23">
         <v>50</v>
@@ -1965,13 +1966,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E15" s="23">
         <v>8</v>
@@ -1983,13 +1984,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="23">
         <v>7</v>
@@ -2007,7 +2008,7 @@
         <v>24</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="23">
         <v>3</v>
@@ -2019,19 +2020,19 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="23">
         <v>30</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="162">
@@ -2039,19 +2040,19 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="23">
         <v>2</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="113.4">
@@ -2059,19 +2060,19 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="23">
         <v>3</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32.4">
@@ -2079,19 +2080,19 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="23">
         <v>18</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2099,19 +2100,19 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="19">
         <v>14</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>47</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2119,13 +2120,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="19">
         <v>14</v>
@@ -2137,13 +2138,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="19">
         <v>14</v>
@@ -2155,13 +2156,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="19">
         <v>14</v>
@@ -2173,19 +2174,19 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="23">
         <v>1</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2193,19 +2194,19 @@
         <v>19</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E27" s="23">
         <v>5</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="32.4">
@@ -2213,19 +2214,19 @@
         <v>20</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" s="23">
         <v>600</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2233,13 +2234,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" s="19">
         <v>6</v>
@@ -2251,19 +2252,19 @@
         <v>22</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="19">
         <v>8</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2271,13 +2272,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E31" s="23">
         <v>8</v>
@@ -2289,19 +2290,19 @@
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E32" s="23">
         <v>1</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2309,13 +2310,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="23">
         <v>6</v>
@@ -2327,13 +2328,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E34" s="23"/>
       <c r="G34" s="24"/>
@@ -2343,13 +2344,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E35" s="23">
         <v>6</v>
@@ -2361,13 +2362,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E36" s="23"/>
       <c r="G36" s="24"/>
@@ -2377,13 +2378,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E37" s="23">
         <v>6</v>
@@ -2440,293 +2441,293 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2756,12 +2757,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2792,13 +2793,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>146</v>
-      </c>
       <c r="E6" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
@@ -2811,13 +2812,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>147</v>
-      </c>
       <c r="E7" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
@@ -2830,13 +2831,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>152</v>
       </c>
       <c r="F8" s="16">
         <v>14</v>
@@ -2849,13 +2850,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F9" s="16">
         <v>20</v>
@@ -2868,13 +2869,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="16">
         <v>20</v>
@@ -2887,13 +2888,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>160</v>
-      </c>
       <c r="E11" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -2904,13 +2905,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>161</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -2921,20 +2922,20 @@
         <v>8</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F13" s="16">
         <v>100</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2960,402 +2961,402 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="31" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="31" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="31" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="31" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="31" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="31" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="31" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="31" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="31" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B27" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="31" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B29" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="31" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B32" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="31" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B33" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="31" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="31" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="31" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B36" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B37" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="31" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="31" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B40" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="31" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B41" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="31" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B42" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B43" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="31" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B44" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="31" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B45" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="31" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B46" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="31" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="31" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B48" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B49" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="31" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B50" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
